--- a/Lectures and Assignment 2/problem5_Nguyen Xuan Binh_887799.xlsx
+++ b/Lectures and Assignment 2/problem5_Nguyen Xuan Binh_887799.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/ilkka_j_leppanen_aalto_fi1/Documents/AALTO TEACHING/BUSINESS ANALYTICS 2 (2024)/assignment 2/answer templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-II\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{EEA1D940-83C5-3240-B5F8-63F563A1ED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5C3E8A-C59C-E44B-8202-C5BC05102A95}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0995EF6-89D5-48C2-ABA6-005B66B434D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15980" xr2:uid="{042D6945-A1B7-0844-A7C6-602223716F6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{042D6945-A1B7-0844-A7C6-602223716F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>a) Report the risk attitudes of both investors and justify your answers.</t>
   </si>
@@ -96,6 +96,13 @@
   </si>
   <si>
     <t>Use the green shaded cell areas to write your answers. The text is allowed to flow over the area.</t>
+  </si>
+  <si>
+    <t>For Peter, his utility graph is upward sloping and becomes steeper, but slowly, as the amount of money increases. The derivative of Peter's U(x) is 0.006, which means Peter shows risk-seeking behavior. He values each additional unit of money more than the last, which means he prefers riskier investments.
+For David, his utility graph is downward sloping and becomes flatter rapidly as the amount of money increases. The derivative of David's U(x) is −2/(x+1)^2, which means David shows risk-averse behavior. He values each additional unit of money less than the last, which means he prefers safer investments.</t>
+  </si>
+  <si>
+    <t>Risk premia refers to the amount by which the return of a risky asset is expected to outperform the known return on a risk-free asset.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,46 +226,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,6 +262,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCDCD26-F39A-116B-0DB8-70650F47FEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892040" y="822960"/>
+          <a:ext cx="7515225" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,172 +612,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F5583-4D25-9E46-8FBE-4D306EE4B070}">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="13" t="s">
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="3"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G46" s="2"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="2"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>